--- a/results/Auto/genero-m1_es_el_más_adjetivocolores-m2_que_he_conocido.xlsx
+++ b/results/Auto/genero-m1_es_el_más_adjetivocolores-m2_que_he_conocido.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007336194161325693</v>
+        <v>1.130876814414705e-08</v>
       </c>
       <c r="E2" t="n">
         <v>0.0003639096976257861</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008903900743462145</v>
+        <v>7.404569180025078e-10</v>
       </c>
       <c r="E3" t="n">
         <v>0.0001865295635070652</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00362498895265162</v>
+        <v>4.702469169615142e-08</v>
       </c>
       <c r="E4" t="n">
         <v>0.0001974766637431458</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0193445198237896</v>
+        <v>2.244840224818745e-08</v>
       </c>
       <c r="E5" t="n">
         <v>0.001195419346913695</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00490163266658783</v>
+        <v>3.730638298282685e-10</v>
       </c>
       <c r="E6" t="n">
         <v>0.0004172522167209536</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004060000646859407</v>
+        <v>2.745726668251791e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.0001282524317502975</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00516236387193203</v>
+        <v>1.598656638179818e-07</v>
       </c>
       <c r="E8" t="n">
         <v>0.0003819515404757112</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003773719305172563</v>
+        <v>2.639765517287174e-09</v>
       </c>
       <c r="E9" t="n">
         <v>5.559975397773087e-05</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00288083148188889</v>
+        <v>3.449601848615202e-08</v>
       </c>
       <c r="E10" t="n">
         <v>0.0003802073479164392</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01001316215842962</v>
+        <v>2.421744405012305e-08</v>
       </c>
       <c r="E11" t="n">
         <v>0.001883775694295764</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007857310585677624</v>
+        <v>2.041841185018711e-08</v>
       </c>
       <c r="E12" t="n">
         <v>0.00294379354454577</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009858286939561367</v>
+        <v>5.211480136324553e-09</v>
       </c>
       <c r="E13" t="n">
         <v>0.0003117485612165183</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.009243110194802284</v>
+        <v>5.640440647880496e-08</v>
       </c>
       <c r="E14" t="n">
         <v>0.002907840069383383</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.007558848708868027</v>
+        <v>1.329537013816662e-08</v>
       </c>
       <c r="E15" t="n">
         <v>1.426604376320029e-05</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003824327606707811</v>
+        <v>1.700649399083431e-08</v>
       </c>
       <c r="E16" t="n">
         <v>3.742613989743404e-05</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005732539109885693</v>
+        <v>1.903418400672763e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.0009082391043193638</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01640832237899303</v>
+        <v>1.051591436151966e-08</v>
       </c>
       <c r="E18" t="n">
         <v>0.0001039016133290716</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00196775933727622</v>
+        <v>1.511947900212363e-09</v>
       </c>
       <c r="E19" t="n">
         <v>8.9712739281822e-05</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005596240051090717</v>
+        <v>5.39724425152599e-08</v>
       </c>
       <c r="E20" t="n">
         <v>0.0002417071664240211</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005144798196852207</v>
+        <v>2.061430137700881e-09</v>
       </c>
       <c r="E21" t="n">
         <v>0.0001224934676429257</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005143899004906416</v>
+        <v>2.545105282081295e-08</v>
       </c>
       <c r="E22" t="n">
         <v>0.001062432653270662</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004997690673917532</v>
+        <v>5.473243636089364e-09</v>
       </c>
       <c r="E23" t="n">
         <v>0.0003506588109303266</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00214845989830792</v>
+        <v>7.580308047927531e-10</v>
       </c>
       <c r="E24" t="n">
         <v>5.421167588792741e-05</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01176510751247406</v>
+        <v>8.748229696209364e-09</v>
       </c>
       <c r="E25" t="n">
         <v>0.0001523169921711087</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005125090945512056</v>
+        <v>1.649890890575989e-08</v>
       </c>
       <c r="E26" t="n">
         <v>0.0004646611632779241</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005284989718347788</v>
+        <v>1.796682624899404e-08</v>
       </c>
       <c r="E27" t="n">
         <v>0.0001380297908326611</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003830924862995744</v>
+        <v>4.194496305842677e-09</v>
       </c>
       <c r="E28" t="n">
         <v>0.0005450416938401759</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00974755547940731</v>
+        <v>4.13701499724084e-08</v>
       </c>
       <c r="E29" t="n">
         <v>0.0001593466877238825</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005219189915806055</v>
+        <v>3.408389304127013e-08</v>
       </c>
       <c r="E30" t="n">
         <v>1.450262243452016e-05</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04107364639639854</v>
+        <v>1.056266629717584e-08</v>
       </c>
       <c r="E31" t="n">
         <v>0.0009883397724479437</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006381583400070667</v>
+        <v>2.161264234246119e-08</v>
       </c>
       <c r="E32" t="n">
         <v>0.00029365363297984</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003570665139704943</v>
+        <v>5.981702599910932e-08</v>
       </c>
       <c r="E33" t="n">
         <v>0.0004413046408444643</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00352108059450984</v>
+        <v>2.482212657639593e-08</v>
       </c>
       <c r="E34" t="n">
         <v>0.0002522401337046176</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.005761020351201296</v>
+        <v>4.645507534206672e-09</v>
       </c>
       <c r="E35" t="n">
         <v>0.001125889015384018</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.009399882517755032</v>
+        <v>2.583434355329928e-09</v>
       </c>
       <c r="E36" t="n">
         <v>0.0002347915142308921</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004393377341330051</v>
+        <v>2.126715692440939e-08</v>
       </c>
       <c r="E37" t="n">
         <v>0.0002588992065284401</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002126774052157998</v>
+        <v>1.15883191931232e-09</v>
       </c>
       <c r="E38" t="n">
         <v>0.0004554486367851496</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002126774052157998</v>
+        <v>1.15883191931232e-09</v>
       </c>
       <c r="E39" t="n">
         <v>0.0004554486367851496</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002463025972247124</v>
+        <v>5.753641474370852e-08</v>
       </c>
       <c r="E40" t="n">
         <v>0.0004177784139756113</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.008693487383425236</v>
+        <v>1.288264517285143e-08</v>
       </c>
       <c r="E41" t="n">
         <v>0.0003223044623155147</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002791913691908121</v>
+        <v>1.342384203795177e-09</v>
       </c>
       <c r="E42" t="n">
         <v>0.0003609097620937973</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01049522310495377</v>
+        <v>3.847388896360826e-08</v>
       </c>
       <c r="E43" t="n">
         <v>0.000977462506853044</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.005430888384580612</v>
+        <v>1.417718831220327e-08</v>
       </c>
       <c r="E44" t="n">
         <v>0.0003359841357450932</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.004971403162926435</v>
+        <v>5.064484298600291e-08</v>
       </c>
       <c r="E45" t="n">
         <v>0.00034118298208341</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.004064836073666811</v>
+        <v>1.045862845217016e-07</v>
       </c>
       <c r="E46" t="n">
         <v>0.000350161746609956</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.005503036547452211</v>
+        <v>6.102209937353109e-08</v>
       </c>
       <c r="E47" t="n">
         <v>0.001089410041458905</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01019322499632835</v>
+        <v>4.573468714852424e-08</v>
       </c>
       <c r="E48" t="n">
         <v>0.0003979889152105898</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002214049454778433</v>
+        <v>7.66119168105206e-09</v>
       </c>
       <c r="E49" t="n">
         <v>0.001658936147578061</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0009080191375687718</v>
+        <v>6.709536926052806e-09</v>
       </c>
       <c r="E50" t="n">
         <v>0.0002292047283845022</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01747169531881809</v>
+        <v>2.996250714204507e-08</v>
       </c>
       <c r="E51" t="n">
         <v>0.0006958451704122126</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01600425317883492</v>
+        <v>7.501316900970778e-09</v>
       </c>
       <c r="E52" t="n">
         <v>0.0002785038377624005</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.003359349677339196</v>
+        <v>7.864222162368151e-09</v>
       </c>
       <c r="E53" t="n">
         <v>0.000895934586878866</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.004423134494572878</v>
+        <v>5.860845142535709e-09</v>
       </c>
       <c r="E54" t="n">
         <v>0.000101654339232482</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.002260867273434997</v>
+        <v>4.859798674594629e-10</v>
       </c>
       <c r="E55" t="n">
         <v>2.61568548012292e-05</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.001134390011429787</v>
+        <v>1.427817952759369e-08</v>
       </c>
       <c r="E56" t="n">
         <v>0.0004354572156444192</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001098886365070939</v>
+        <v>2.446136626588213e-09</v>
       </c>
       <c r="E57" t="n">
         <v>0.001314524444751441</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00540762348100543</v>
+        <v>3.617902777364179e-08</v>
       </c>
       <c r="E58" t="n">
         <v>0.0002565127797424793</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.006720524281263351</v>
+        <v>6.619335302104901e-09</v>
       </c>
       <c r="E59" t="n">
         <v>0.002086161402985454</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01026824489235878</v>
+        <v>8.994587830102319e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.0001932954037329182</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.004846819676458836</v>
+        <v>5.476487174860267e-08</v>
       </c>
       <c r="E61" t="n">
         <v>0.001044284435920417</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01093877479434013</v>
+        <v>3.584619889807072e-08</v>
       </c>
       <c r="E62" t="n">
         <v>0.0002490174665581435</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.003516779514029622</v>
+        <v>1.581433295427814e-08</v>
       </c>
       <c r="E63" t="n">
         <v>0.0001712608063826337</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.003198939608410001</v>
+        <v>7.799396684049498e-08</v>
       </c>
       <c r="E64" t="n">
         <v>0.0005569562781602144</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002528645563870668</v>
+        <v>1.210338496093755e-08</v>
       </c>
       <c r="E65" t="n">
         <v>0.0002044525026576594</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001244021928869188</v>
+        <v>5.32486810200794e-09</v>
       </c>
       <c r="E66" t="n">
         <v>0.0001443420187570155</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.004756803624331951</v>
+        <v>1.574173325025185e-07</v>
       </c>
       <c r="E67" t="n">
         <v>0.0004770712112076581</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.004834929015487432</v>
+        <v>7.660286627242385e-09</v>
       </c>
       <c r="E68" t="n">
         <v>0.001289196312427521</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01010665483772755</v>
+        <v>1.879570987739498e-08</v>
       </c>
       <c r="E69" t="n">
         <v>0.0001293145323870704</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.005062905605882406</v>
+        <v>1.122087978089326e-09</v>
       </c>
       <c r="E70" t="n">
         <v>0.0001052735387929715</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.005062905605882406</v>
+        <v>1.122087978089326e-09</v>
       </c>
       <c r="E71" t="n">
         <v>0.0001052735387929715</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.001552035566419363</v>
+        <v>1.540690242052278e-08</v>
       </c>
       <c r="E72" t="n">
         <v>4.425828592502512e-05</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.00244001392275095</v>
+        <v>3.438801687849491e-09</v>
       </c>
       <c r="E73" t="n">
         <v>3.337881207698956e-05</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.002339041326195002</v>
+        <v>4.764540317836463e-09</v>
       </c>
       <c r="E74" t="n">
         <v>9.406256867805496e-05</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.005368180572986603</v>
+        <v>4.459192481931495e-08</v>
       </c>
       <c r="E75" t="n">
         <v>0.0005430754390545189</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03946778550744057</v>
+        <v>3.504504464402203e-09</v>
       </c>
       <c r="E76" t="n">
         <v>0.0003671748272608966</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.002552937716245651</v>
+        <v>6.672350227887591e-09</v>
       </c>
       <c r="E77" t="n">
         <v>0.0003857311967294663</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.003296346170827746</v>
+        <v>1.116526315847466e-09</v>
       </c>
       <c r="E78" t="n">
         <v>5.801156294182874e-05</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.005632733926177025</v>
+        <v>2.629993289815502e-08</v>
       </c>
       <c r="E79" t="n">
         <v>0.0004696768010035157</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0025344118475914</v>
+        <v>5.263947056022289e-09</v>
       </c>
       <c r="E80" t="n">
         <v>0.0002074013173114508</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00783485546708107</v>
+        <v>3.521067881706585e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.0005361778312362731</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.008670448325574398</v>
+        <v>1.83763351202515e-08</v>
       </c>
       <c r="E82" t="n">
         <v>0.0003056703135371208</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.009412414394319057</v>
+        <v>5.82891424016907e-08</v>
       </c>
       <c r="E83" t="n">
         <v>0.0003738018276635557</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.004252021200954914</v>
+        <v>2.367497486943648e-08</v>
       </c>
       <c r="E84" t="n">
         <v>0.0005056267254985869</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002518169349059463</v>
+        <v>8.414659191657847e-09</v>
       </c>
       <c r="E85" t="n">
         <v>0.0001784678315743804</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.009970132261514664</v>
+        <v>1.039802111080235e-08</v>
       </c>
       <c r="E86" t="n">
         <v>0.0003970838442910463</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00614930409938097</v>
+        <v>6.507872907235424e-09</v>
       </c>
       <c r="E87" t="n">
         <v>9.415475506102666e-05</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.004201904404908419</v>
+        <v>3.749180876866376e-08</v>
       </c>
       <c r="E88" t="n">
         <v>7.894451118772849e-05</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.007006942294538021</v>
+        <v>7.360342557660715e-09</v>
       </c>
       <c r="E89" t="n">
         <v>0.0002962958824355155</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.008190364576876163</v>
+        <v>1.44299763249478e-08</v>
       </c>
       <c r="E90" t="n">
         <v>0.000165114164701663</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.007365805562585592</v>
+        <v>2.23228835416478e-09</v>
       </c>
       <c r="E91" t="n">
         <v>0.0003364277363289148</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01134779956191778</v>
+        <v>1.296669971395659e-08</v>
       </c>
       <c r="E92" t="n">
         <v>0.0001342714676866308</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001031987136229873</v>
+        <v>2.045238867154353e-09</v>
       </c>
       <c r="E93" t="n">
         <v>3.713139813044108e-05</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01312187686562538</v>
+        <v>6.140393082887385e-09</v>
       </c>
       <c r="E94" t="n">
         <v>0.001632253639400005</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00411361176520586</v>
+        <v>3.220154098926287e-08</v>
       </c>
       <c r="E95" t="n">
         <v>0.0002050481562037021</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.00569552555680275</v>
+        <v>5.856702500750544e-08</v>
       </c>
       <c r="E96" t="n">
         <v>0.0006652920274063945</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.007438758388161659</v>
+        <v>4.851157253682459e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.004764345474541187</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.001128284959122539</v>
+        <v>5.009846981707256e-10</v>
       </c>
       <c r="E98" t="n">
         <v>6.69524451950565e-05</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002450031461194158</v>
+        <v>5.229841004705804e-10</v>
       </c>
       <c r="E99" t="n">
         <v>0.0001771833776729181</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.001671565696597099</v>
+        <v>3.839497608737474e-09</v>
       </c>
       <c r="E100" t="n">
         <v>0.00107133761048317</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005073285661637783</v>
+        <v>4.361565331123529e-08</v>
       </c>
       <c r="E101" t="n">
         <v>0.0002410459564998746</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
